--- a/trans_data/太仓银行 1936 C0304.xlsx
+++ b/trans_data/太仓银行 1936 C0304.xlsx
@@ -491,14 +491,14 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>存放各同业</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>资产 合计</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>存放各同业</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>股本总额</t>
@@ -611,12 +611,12 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
+          <t>上年滚存</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
           <t>利益 合计</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>上年滚存</t>
         </is>
       </c>
     </row>
@@ -659,10 +659,10 @@
       <c r="L2" t="n">
         <v>7354.21</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>834223.78</v>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
         <v>250000</v>
       </c>
@@ -729,10 +729,10 @@
       <c r="AJ2" t="n">
         <v>408.66</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
         <v>28085.53</v>
       </c>
-      <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -774,10 +774,10 @@
         <v>4159.31</v>
       </c>
       <c r="M3" t="n">
+        <v>17411.1</v>
+      </c>
+      <c r="N3" t="n">
         <v>644175.42</v>
-      </c>
-      <c r="N3" t="n">
-        <v>17411.1</v>
       </c>
       <c r="O3" t="n">
         <v>250000</v>
@@ -844,10 +844,10 @@
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
+        <v>236.99</v>
+      </c>
+      <c r="AL3" t="n">
         <v>26724.61</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>236.99</v>
       </c>
     </row>
   </sheetData>

--- a/trans_data/太仓银行 1936 C0304.xlsx
+++ b/trans_data/太仓银行 1936 C0304.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,419 +434,413 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>银行名</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>银行名</t>
+          <t>年份</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>年份</t>
+          <t>未缴股本</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>未缴股本</t>
+          <t>定期放款</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>定期放款</t>
+          <t>定期抵押放款</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>定期抵押放款</t>
+          <t>往来透支</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>往来透支</t>
+          <t>外埠同业欠款</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>外埠同业欠款</t>
+          <t>杂项欠款</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>杂项欠款</t>
+          <t>生财</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>生财</t>
+          <t>有价证券</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>有价证券</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>存放各同业</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>存放各同业</t>
+          <t>资产 合计</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>资产 合计</t>
+          <t>股本总额</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>股本总额</t>
+          <t>定期存款</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>定期存款</t>
+          <t>甲种活期存款</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>甲种活期存款</t>
+          <t>乙种活期存款</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>乙种活期存款</t>
+          <t>杂项存款</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>杂项存款</t>
+          <t>外埠同业存款</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>外埠同业存款</t>
+          <t>公积金</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>公积金</t>
+          <t>特别公积金</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>特别公积金</t>
+          <t>代收款项</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>代收款项</t>
+          <t>未付股息</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>未付股息</t>
+          <t>本年盈余</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>本年盈余</t>
+          <t>往来存款</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>往来存款</t>
+          <t>透支各同业</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>透支各同业</t>
+          <t>负债 合计</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>负债 合计</t>
+          <t>各项开支</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>各项开支</t>
+          <t>摊提生财</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>摊提生财</t>
+          <t>拨入公积</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>拨入公积</t>
+          <t>纯益</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>纯益</t>
+          <t>损失 合计</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>损失 合计</t>
+          <t>利息</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>利息</t>
+          <t>汇水</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>汇水</t>
+          <t>手续费</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>手续费</t>
+          <t>上年滚存</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>上年滚存</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>利益 合计</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>太仓银行</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>1934</v>
+      </c>
       <c r="C2" t="n">
-        <v>1934</v>
+        <v>83600</v>
       </c>
       <c r="D2" t="n">
-        <v>83600</v>
+        <v>241199.81</v>
       </c>
       <c r="E2" t="n">
-        <v>241199.81</v>
+        <v>95214.07000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>95214.07000000001</v>
+        <v>195219.64</v>
       </c>
       <c r="G2" t="n">
-        <v>195219.64</v>
+        <v>6903.77</v>
       </c>
       <c r="H2" t="n">
-        <v>6903.77</v>
+        <v>14624.14</v>
       </c>
       <c r="I2" t="n">
-        <v>14624.14</v>
+        <v>14520.78</v>
       </c>
       <c r="J2" t="n">
-        <v>14520.78</v>
+        <v>175587.36</v>
       </c>
       <c r="K2" t="n">
-        <v>175587.36</v>
-      </c>
-      <c r="L2" t="n">
         <v>7354.21</v>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>834223.78</v>
+      </c>
       <c r="N2" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>89096</v>
+      </c>
+      <c r="P2" t="n">
+        <v>407102.17</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1822.03</v>
+      </c>
+      <c r="R2" t="n">
+        <v>9422.639999999999</v>
+      </c>
+      <c r="S2" t="n">
+        <v>12958.88</v>
+      </c>
+      <c r="T2" t="n">
+        <v>14068</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8559.33</v>
+      </c>
+      <c r="V2" t="n">
+        <v>947.8</v>
+      </c>
+      <c r="W2" t="n">
+        <v>36</v>
+      </c>
+      <c r="X2" t="n">
+        <v>14265.94</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>16519.3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9425.690000000001</v>
+      </c>
+      <c r="AA2" t="n">
         <v>834223.78</v>
       </c>
-      <c r="O2" t="n">
-        <v>250000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>89096</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>407102.17</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1822.03</v>
-      </c>
-      <c r="S2" t="n">
-        <v>9422.639999999999</v>
-      </c>
-      <c r="T2" t="n">
-        <v>12958.88</v>
-      </c>
-      <c r="U2" t="n">
-        <v>14068</v>
-      </c>
-      <c r="V2" t="n">
-        <v>8559.33</v>
-      </c>
-      <c r="W2" t="n">
-        <v>947.8</v>
-      </c>
-      <c r="X2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>14265.94</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>16519.3</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>9425.690000000001</v>
-      </c>
       <c r="AB2" t="n">
-        <v>834223.78</v>
+        <v>11819.59</v>
       </c>
       <c r="AC2" t="n">
-        <v>11819.59</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>14265.94</v>
       </c>
       <c r="AF2" t="n">
-        <v>14265.94</v>
+        <v>28085.53</v>
       </c>
       <c r="AG2" t="n">
-        <v>28085.53</v>
+        <v>23399.43</v>
       </c>
       <c r="AH2" t="n">
-        <v>23399.43</v>
+        <v>4277.44</v>
       </c>
       <c r="AI2" t="n">
-        <v>4277.44</v>
-      </c>
-      <c r="AJ2" t="n">
         <v>408.66</v>
       </c>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="n">
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="n">
         <v>28085.53</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>太仓银行</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>1935</v>
+      </c>
       <c r="C3" t="n">
-        <v>1935</v>
+        <v>76688</v>
       </c>
       <c r="D3" t="n">
-        <v>76688</v>
+        <v>173286.65</v>
       </c>
       <c r="E3" t="n">
-        <v>173286.65</v>
+        <v>110527.13</v>
       </c>
       <c r="F3" t="n">
-        <v>110527.13</v>
+        <v>101311.26</v>
       </c>
       <c r="G3" t="n">
-        <v>101311.26</v>
+        <v>3765.93</v>
       </c>
       <c r="H3" t="n">
-        <v>3765.93</v>
+        <v>13369.59</v>
       </c>
       <c r="I3" t="n">
-        <v>13369.59</v>
+        <v>25220.78</v>
       </c>
       <c r="J3" t="n">
-        <v>25220.78</v>
+        <v>118435.67</v>
       </c>
       <c r="K3" t="n">
-        <v>118435.67</v>
+        <v>4159.31</v>
       </c>
       <c r="L3" t="n">
-        <v>4159.31</v>
+        <v>17411.1</v>
       </c>
       <c r="M3" t="n">
-        <v>17411.1</v>
+        <v>644175.42</v>
       </c>
       <c r="N3" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>63340</v>
+      </c>
+      <c r="P3" t="n">
+        <v>221453.98</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2203.99</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4261.01</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8354.719999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>15068</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9059.33</v>
+      </c>
+      <c r="V3" t="n">
+        <v>783.02</v>
+      </c>
+      <c r="W3" t="n">
+        <v>124</v>
+      </c>
+      <c r="X3" t="n">
+        <v>14262.17</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3465.2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>51800</v>
+      </c>
+      <c r="AA3" t="n">
         <v>644175.42</v>
       </c>
-      <c r="O3" t="n">
-        <v>250000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>63340</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>221453.98</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2203.99</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4261.01</v>
-      </c>
-      <c r="T3" t="n">
-        <v>8354.719999999999</v>
-      </c>
-      <c r="U3" t="n">
-        <v>15068</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9059.33</v>
-      </c>
-      <c r="W3" t="n">
-        <v>783.02</v>
-      </c>
-      <c r="X3" t="n">
-        <v>124</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AB3" t="n">
+        <v>10962.44</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
         <v>14262.17</v>
       </c>
-      <c r="Z3" t="n">
-        <v>3465.2</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>51800</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>644175.42</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10962.44</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF3" t="n">
-        <v>14262.17</v>
+        <v>26724.61</v>
       </c>
       <c r="AG3" t="n">
-        <v>26724.61</v>
+        <v>22656.83</v>
       </c>
       <c r="AH3" t="n">
-        <v>22656.83</v>
-      </c>
-      <c r="AI3" t="n">
         <v>3376.85</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="n">
+        <v>236.99</v>
+      </c>
       <c r="AK3" t="n">
-        <v>236.99</v>
-      </c>
-      <c r="AL3" t="n">
         <v>26724.61</v>
       </c>
     </row>

--- a/trans_data/太仓银行 1936 C0304.xlsx
+++ b/trans_data/太仓银行 1936 C0304.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,189 +422,189 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>银行名</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>年份</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>未缴股本</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>定期放款</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>定期抵押放款</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>往来透支</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>外埠同业欠款</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>杂项欠款</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>生财</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>有价证券</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>存放各同业</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>资产 合计</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
         <is>
           <t>股本总额</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>定期存款</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>甲种活期存款</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>乙种活期存款</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>杂项存款</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>外埠同业存款</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>公积金</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>特别公积金</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>代收款项</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>未付股息</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>本年盈余</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>往来存款</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>透支各同业</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>负债 合计</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
         <is>
           <t>各项开支</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>摊提生财</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>拨入公积</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>纯益</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>损失 合计</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
         <is>
           <t>利息</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>汇水</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>手续费</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>上年滚存</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>利益 合计</t>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>合计</t>
         </is>
       </c>
     </row>

--- a/trans_data/太仓银行 1936 C0304.xlsx
+++ b/trans_data/太仓银行 1936 C0304.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,189 +434,189 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>银行名</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>年份</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>未缴股本</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>定期放款</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>定期抵押放款</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>往来透支</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>外埠同业欠款</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>杂项欠款</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>生财</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>有价证券</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>存放各同业</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>资产 合计</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>股本总额</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>定期存款</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>甲种活期存款</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>乙种活期存款</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>杂项存款</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>外埠同业存款</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>公积金</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>特别公积金</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>代收款项</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>未付股息</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>本年盈余</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>往来存款</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>透支各同业</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>负债 合计</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>各项开支</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>摊提生财</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>拨入公积</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>纯益</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>损失 合计</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>利息</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>汇水</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>手续费</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>上年滚存</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>合计</t>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>利益 合计</t>
         </is>
       </c>
     </row>
